--- a/prep_and_checklists/Warner Music Group Day 4	/Warner Music Group Day 4	_2025-04-20_0.xlsx
+++ b/prep_and_checklists/Warner Music Group Day 4	/Warner Music Group Day 4	_2025-04-20_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Warner Music Group Day 4_x0009_/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A02CE5-AB00-C842-80DA-5E5C82C28312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491DA597-DA07-CC47-8182-1456F829C659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14840" yWindow="760" windowWidth="30240" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14840" yWindow="760" windowWidth="30240" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="132">
   <si>
     <t>Soft Scrambled Eggs</t>
   </si>
@@ -451,6 +451,9 @@
       </rPr>
       <t>LUNCH IN BLUE ROOM</t>
     </r>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -866,10 +869,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -964,7 +970,9 @@
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
@@ -1425,7 +1433,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="48" orientation="portrait" copies="2"/>
 </worksheet>
 </file>
 
@@ -1846,5 +1854,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>